--- a/biology/Botanique/Raoul_Combes/Raoul_Combes.xlsx
+++ b/biology/Botanique/Raoul_Combes/Raoul_Combes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raoul Pierre Émile Combes est un botaniste français, né le 15 janvier 1883 à Castelfranc (Lot) et mort le 27 février 1964 à Paris.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à Clermont puis fréquente l’École supérieure de pharmacie de Paris (1900-1907) et la faculté des sciences de Paris. Il obtient sa licence en biologie, en 1908, et est fait docteur deux ans plus tard. Il se marie avec Marguerite Bonnier, fille du botaniste Gaston Bonnier.
 Il est préparateur à la faculté des sciences de Paris (1907). En 1912, il devient professeur de botanique appliquée à l’Institut national d’agronomie coloniale ainsi qu’à l’École nationale d'horticulture. Il revient à la faculté des sciences, comme préparateur (1919), chargé des fonctions de maître de conférences (1920), chef des travaux (1921), maître de conférences (1931), professeur sans chaire (1932). Il succède à Marin Molliard à la chaire de physiologie végétale. Il dirige le laboratoire de biologie végétale de Fontainebleau (1937), de l’École pratique des hautes études (1937) et enseigne à l’École normale de Saint-Cloud (1937). Il se remarie en 1962.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1910 : Détermination des intensités lumineuses optima pour les végétaux aux divers stades du développement, Masson (Paris) : 254 p.
 1927 : La Vie de la cellule végétale, Armand Colin (Paris) : 216 p.
@@ -581,11 +597,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 Christophe Charle et Eva Telkes (1989). Les Professeurs de la Faculté des sciences de Paris. Dictionnaire biographique (1901-1939), Institut national de recherche pédagogique (Paris) et CNRS Éditions, collection Histoire biographique de l’Enseignement : 270 p.  (ISBN 2-222-04336-0) 
-Exposé des titres et travaux scientifiques de Raoul Combes, Paris : Hermann &amp; Cie, 1945, 34 p. [1]</t>
+Exposé des titres et travaux scientifiques de Raoul Combes, Paris : Hermann &amp; Cie, 1945, 34 p. </t>
         </is>
       </c>
     </row>
